--- a/public/data/profit/profit_table_eritrea.xlsx
+++ b/public/data/profit/profit_table_eritrea.xlsx
@@ -4908,13 +4908,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>-8.99</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>-8.89</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4926,10 +4926,10 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>-8.94</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>-8.88</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -5228,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-9.05</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>-8.99</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
